--- a/Test_document.xlsx
+++ b/Test_document.xlsx
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -668,6 +668,9 @@
       <c r="I4">
         <v>5</v>
       </c>
+      <c r="J4">
+        <v>0.85298516088200005</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
@@ -781,6 +784,9 @@
       <c r="I8">
         <v>5</v>
       </c>
+      <c r="J8">
+        <v>0.84502871475399999</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
@@ -865,6 +871,9 @@
       <c r="I11">
         <v>5</v>
       </c>
+      <c r="J11">
+        <v>0.84943227787300002</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
@@ -978,6 +987,9 @@
       <c r="I15">
         <v>5</v>
       </c>
+      <c r="J15">
+        <v>0.84627644950299996</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
@@ -1062,6 +1074,9 @@
       <c r="I18">
         <v>5</v>
       </c>
+      <c r="J18">
+        <v>0.86383648361400001</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
@@ -1175,6 +1190,9 @@
       <c r="I22">
         <v>5</v>
       </c>
+      <c r="J22">
+        <v>0.86213365400399999</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
@@ -1259,6 +1277,9 @@
       <c r="I25">
         <v>5</v>
       </c>
+      <c r="J25">
+        <v>0.85748373566299996</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
@@ -1372,6 +1393,9 @@
       <c r="I29">
         <v>5</v>
       </c>
+      <c r="J29">
+        <v>0.85737939770500005</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
@@ -1456,6 +1480,9 @@
       <c r="I32">
         <v>5</v>
       </c>
+      <c r="J32">
+        <v>0.85796305277200002</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
@@ -1512,7 +1539,7 @@
         <v>5</v>
       </c>
       <c r="J34">
-        <v>0.85818372988400005</v>
+        <v>0.85815664189300001</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1569,6 +1596,9 @@
       <c r="I36">
         <v>5</v>
       </c>
+      <c r="J36">
+        <v>0.85942574972100005</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
@@ -1653,6 +1683,9 @@
       <c r="I39">
         <v>5</v>
       </c>
+      <c r="J39">
+        <v>0.82562367273000004</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
@@ -1708,6 +1741,9 @@
       <c r="I41">
         <v>5</v>
       </c>
+      <c r="J41">
+        <v>0.82337105086899998</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
@@ -1763,6 +1799,9 @@
       <c r="I43">
         <v>5</v>
       </c>
+      <c r="J43">
+        <v>0.82848526644800002</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
@@ -1847,6 +1886,9 @@
       <c r="I46">
         <v>5</v>
       </c>
+      <c r="J46">
+        <v>0.85997254624999997</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
@@ -1903,7 +1945,7 @@
         <v>5</v>
       </c>
       <c r="J48">
-        <v>858816468273</v>
+        <v>0.85851486855500003</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -1960,6 +2002,9 @@
       <c r="I50">
         <v>5</v>
       </c>
+      <c r="J50">
+        <v>0.85743266981300004</v>
+      </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
@@ -2044,6 +2089,9 @@
       <c r="I53">
         <v>5</v>
       </c>
+      <c r="J53">
+        <v>0.85884448041700001</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
@@ -2156,6 +2204,9 @@
       </c>
       <c r="I57">
         <v>5</v>
+      </c>
+      <c r="J57">
+        <v>0.85895944798099999</v>
       </c>
     </row>
   </sheetData>
